--- a/SkillsHub/reportStudentDTO.xlsx
+++ b/SkillsHub/reportStudentDTO.xlsx
@@ -21,7 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>ApplicationUser</t>
+  </si>
   <si>
     <t>StudentLessons</t>
   </si>
@@ -655,13 +661,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AS1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:43" ht="12.75">
+    <row r="1" spans="1:45" ht="12.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,6 +796,12 @@
       </c>
       <c r="AQ1" t="s">
         <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -837,42 +849,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
